--- a/workOnExcel/recipects.xlsx
+++ b/workOnExcel/recipects.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="recipects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>recipect number</t>
   </si>
@@ -25,21 +25,18 @@
     <t xml:space="preserve">total price </t>
   </si>
   <si>
-    <t>23.12.18</t>
-  </si>
-  <si>
-    <t>23 Dec 2018</t>
+    <t>2018-12-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,16 +69,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -155,7 +147,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -190,7 +181,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,21 +356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.19921875" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" customWidth="1"/>
-    <col min="3" max="3" width="37.296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -399,29 +382,18 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>581.5394</v>
+        <v>290.76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>431.08940000000013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>782.14</v>
+        <v>90.18000000000001</v>
       </c>
     </row>
   </sheetData>
